--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.630750.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.630750.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18D587D1-11B2-4C8F-A922-CE8A938FD164}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDDAB215-0978-4B89-90D6-FB5C7DEB5855}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T073630.143" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T064056.137" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.630750.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.630750.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDDAB215-0978-4B89-90D6-FB5C7DEB5855}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24E90411-13B4-49BA-88B0-94DA3923F239}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T064056.137" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T064332.774" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
